--- a/CustomerReg/TestData/AccountReg.xlsx
+++ b/CustomerReg/TestData/AccountReg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="new_reg" sheetId="1" r:id="rId1"/>
+    <sheet name="Accounts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/CustomerReg/TestData/AccountReg.xlsx
+++ b/CustomerReg/TestData/AccountReg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>客户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14412350000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,16 +371,19 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -382,9 +394,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CustomerReg/TestData/AccountReg.xlsx
+++ b/CustomerReg/TestData/AccountReg.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,6 +38,10 @@
   </si>
   <si>
     <t>14412350000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,21 +384,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerReg/TestData/AccountReg.xlsx
+++ b/CustomerReg/TestData/AccountReg.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>客户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,11 +37,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14412350000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14477778100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14477778101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,12 +396,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
